--- a/docs/Localization-Resources.xlsx
+++ b/docs/Localization-Resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>Project</t>
   </si>
@@ -62,18 +62,6 @@
     <t>Strings</t>
   </si>
   <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
     <t>Debug</t>
   </si>
   <si>
@@ -116,79 +104,40 @@
     <t>异常</t>
   </si>
   <si>
-    <t>Create_New</t>
-  </si>
-  <si>
-    <t>Create New</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>Copy</t>
-  </si>
-  <si>
-    <t>复制</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>创建一个副本</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>打开</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>保存</t>
-  </si>
-  <si>
-    <t>Save_As</t>
-  </si>
-  <si>
-    <t>Save As</t>
-  </si>
-  <si>
-    <t>另存为</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>导出</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>导入</t>
-  </si>
-  <si>
-    <t>Choose_File</t>
-  </si>
-  <si>
-    <t>Choose a file</t>
-  </si>
-  <si>
-    <t>选择一个文件</t>
-  </si>
-  <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>上传</t>
-  </si>
-  <si>
-    <t>Download</t>
-  </si>
-  <si>
-    <t>下载</t>
+    <t>Exception_default_message</t>
+  </si>
+  <si>
+    <t>Disco throws an unhandled runtime exception.</t>
+  </si>
+  <si>
+    <t>“Disco”抛出了一个未处理的运行时异常。</t>
+  </si>
+  <si>
+    <t>Exception_default_message_with_reason</t>
+  </si>
+  <si>
+    <t>When "{0}", "Disco" throws an unhandled exception.</t>
+  </si>
+  <si>
+    <t>当 “{0}” 时，“Disco”引发了未处理的异常。</t>
+  </si>
+  <si>
+    <t>ArgumentNullException_default_message</t>
+  </si>
+  <si>
+    <t>Invalid method parameter value: NULL.</t>
+  </si>
+  <si>
+    <t>无效的方法参数值：NULL。</t>
+  </si>
+  <si>
+    <t>ArgumentNullException_default_message_with_argumentname</t>
+  </si>
+  <si>
+    <t>Invalid method parameter "{0}" value: NULL.</t>
+  </si>
+  <si>
+    <t>无效的方法参数 “{0}” 值：NULL。</t>
   </si>
 </sst>
 </file>
@@ -201,7 +150,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,13 +163,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -691,152 +633,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -853,10 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1391,27 +1329,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:B21"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.375" style="2" customWidth="1"/>
+    <col min="4" max="9" width="23.625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1451,19 +1384,16 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1477,11 +1407,13 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
+      <c r="E3" s="2" t="str">
+        <f>$C$3</f>
+        <v>Trace</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>$C$3</f>
+        <v>Trace</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>14</v>
@@ -1517,13 +1449,11 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f>$C$5</f>
-        <v>Trace</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f>$C$5</f>
-        <v>Trace</v>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>18</v>
@@ -1600,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -1617,16 +1547,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -1637,16 +1567,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -1657,196 +1587,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
